--- a/3_Analysis/table2_COPR_s_g_ls.xlsx
+++ b/3_Analysis/table2_COPR_s_g_ls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boterolab1/Box Sync/CB_VF_Shared/Wet_Lab/Projects/FS/FS_Analysis/3_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{726B26EE-27E5-0C42-9416-9BFC364CEBDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{697A8965-86D8-0D4C-ADE8-4B2538FD9B5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7160" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{A65415CD-C432-C749-888F-3700C20A6F96}"/>
+    <workbookView xWindow="25740" yWindow="780" windowWidth="25440" windowHeight="15000" xr2:uid="{07B1D452-8605-334E-B787-7C6E93995724}"/>
   </bookViews>
   <sheets>
     <sheet name="table2_COPR_s_g_ls_inc_raw" sheetId="2" r:id="rId1"/>
@@ -425,10 +425,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9028253E-2D22-504C-A645-048062E74CEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD1DC50-4AC7-A049-81CC-6DE97E14B6F8}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -504,13 +506,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -518,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24A21F8-1BEB-5B4F-BD0E-D7EC6AADBEE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EA45E6-A285-8542-87FB-35413DBCF4B1}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -556,13 +558,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.28100000000000003</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="C2">
         <v>0.40600000000000003</v>
       </c>
       <c r="D2">
-        <v>0.312</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -598,13 +600,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>3.1E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C5">
         <v>0.188</v>
       </c>
       <c r="D5">
-        <v>6.2E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -612,13 +614,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.68799999999999994</v>
+        <v>0.375</v>
       </c>
       <c r="C6">
         <v>0.312</v>
       </c>
       <c r="D6">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -626,13 +628,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7635BBAE-1666-A649-B705-B5A3CBE31F31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4C9FC6-6AD6-054D-A2DA-A455427B926B}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -720,13 +722,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -734,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FBE921-25A9-9143-9275-1939F5A7DC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E972876-1F05-024E-B858-656E1DCEA10C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -828,13 +830,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -842,13 +844,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A2A7AA-A753-4749-BEB4-4D025E2895FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA48B7C-4D36-144E-A3E8-F76C2B03F856}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.1E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -922,13 +924,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.312</v>
+        <v>0.625</v>
       </c>
       <c r="C5">
         <v>0.68799999999999994</v>
       </c>
       <c r="D5">
-        <v>0.34399999999999997</v>
+        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -936,13 +938,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.68799999999999994</v>
+        <v>0.375</v>
       </c>
       <c r="C6">
         <v>0.312</v>
       </c>
       <c r="D6">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB4F9BC-0D3C-D84B-8B2C-6CFB8FA5DDB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8424A877-EAFE-7F4B-AD46-F2F41F0B198B}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1044,13 +1046,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1058,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
